--- a/クラス設計書.xlsx
+++ b/クラス設計書.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>クラス名</t>
     <rPh sb="3" eb="4">
@@ -447,6 +447,30 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空中ダッシュ</t>
+    <rPh sb="0" eb="2">
+      <t>クウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空中</t>
+    <rPh sb="0" eb="2">
+      <t>クウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空中ダッシュ終了</t>
+    <rPh sb="0" eb="2">
+      <t>クウチュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1035,7 +1059,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1273,9 +1297,15 @@
       <c r="I41" s="7"/>
     </row>
     <row r="42" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="8"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
+      <c r="B42" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>

--- a/クラス設計書.xlsx
+++ b/クラス設計書.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7665" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Player.cs" sheetId="2" r:id="rId2"/>
+    <sheet name="Player" sheetId="2" r:id="rId2"/>
+    <sheet name="LockOnIcon" sheetId="4" r:id="rId3"/>
+    <sheet name="テンプレート" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,14 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
-  <si>
-    <t>クラス名</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
   <si>
     <t>属性</t>
     <rPh sb="0" eb="2">
@@ -42,10 +37,6 @@
   </si>
   <si>
     <t>Actor</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>public</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -215,37 +206,6 @@
     <t>プレイヤーの移動、ジャンプ、ハイジャンプ、ロックオン、</t>
     <rPh sb="6" eb="8">
       <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>踏み込みジャンプへ移行時、踏み込み後に移行する状態をセットする</t>
-    <rPh sb="0" eb="1">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ジョウタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -474,12 +434,152 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>.cs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public class</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MyMonoBehaviour</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッド名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻り値</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SetTarget</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>target = 対象</t>
+    <rPh sb="9" eb="11">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追従する対象を設定</t>
+    <rPh sb="0" eb="2">
+      <t>ツイジュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SetSprite</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコン画像を変更</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sprite = スプライト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SetShow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示状態を変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>isShow = 表示状態 (true = 表示)</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追従アイコンを制御する</t>
+    <rPh sb="0" eb="2">
+      <t>ツイジュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追従させるアイコンのゲームオブジェクトにアタッチする</t>
+    <rPh sb="0" eb="2">
+      <t>ツイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FllowIcon.cs</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,6 +630,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -694,7 +802,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -736,6 +844,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1020,32 +1137,33 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1056,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1077,33 +1195,33 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -1111,206 +1229,427 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
+      <c r="F35" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B36" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="D36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B37" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="13" t="s">
+      <c r="D37" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="7"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="I38" s="7"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F40" s="5" t="s">
+    <row r="40" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G40" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I40" s="7"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="8" t="s">
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="10"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
